--- a/files/xlsx/laboratory/technology/ШП СОЖ ШСП.xlsx
+++ b/files/xlsx/laboratory/technology/ШП СОЖ ШСП.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17940" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17940" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="нормативы ШП" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -687,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,7 +722,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,8 +936,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1236,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I12" s="6">
         <v>5</v>
@@ -1257,7 +1257,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1318,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
